--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-185551.6061519496</v>
+        <v>-187439.1876683516</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>103.0985951711545</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>178.9307563921198</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>52.4736908254684</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>41.14266891360439</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>36.408870063228</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>34.6769902525067</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.16013205738677</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>307.5386589270121</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32.5288264096088</v>
+        <v>38.85099796338674</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>10.13442842447612</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>176.5049657539125</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>20.41877943904179</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896905</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>113.6781710760783</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>140.1754268837271</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>231.5946835499488</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>93.014327707587</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>60.61661699143608</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>42.27521927953931</v>
+        <v>93.41221638965531</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>90.2177913943742</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571486</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>4.07899172559776</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463113</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,7 +3244,7 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.005753194187</v>
       </c>
       <c r="W34" t="n">
         <v>218.3911082069503</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2169.72394915887</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="C2" t="n">
-        <v>1800.761432218458</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="D2" t="n">
-        <v>1442.495733611708</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="E2" t="n">
-        <v>1056.707481013463</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>715.3418155590899</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4364,16 +4364,16 @@
         <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>2169.72394915887</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y2" t="n">
-        <v>2169.72394915887</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.0633493392339</v>
+        <v>243.4143268306408</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>243.4143268306408</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>243.4143268306408</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>95.50123324824767</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>243.4143268306408</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694736</v>
+        <v>243.4143268306408</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>885.7444020895362</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C5" t="n">
-        <v>885.7444020895362</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>885.7444020895362</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>499.9561494912919</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>88.97024470168435</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.344242153658</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4644,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224.4233909876363</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="C7" t="n">
-        <v>224.4233909876363</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="D7" t="n">
-        <v>74.30675157530058</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="E7" t="n">
-        <v>74.30675157530058</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="F7" t="n">
-        <v>74.30675157530058</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="G7" t="n">
-        <v>74.30675157530058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>74.30675157530058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>74.30675157530058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>224.4233909876363</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>224.4233909876363</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.4233909876363</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.94664591678</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2000.41240417786</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1626.94664591678</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1626.94664591678</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.4894537511405</v>
+        <v>688.885551920185</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511405</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5002,10 +5002,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>552.3735683412848</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C13" t="n">
-        <v>552.3735683412848</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>402.256928928949</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>254.3438353465559</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>107.4538878486456</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>107.4538878486456</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
         <v>779.063975947119</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>755.1831334811257</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150547</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150547</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.0220331715245</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823782</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C16" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D16" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>934.4781138291679</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>706.4885629311506</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="Y16" t="n">
-        <v>706.4885629311506</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,34 +5531,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5601,7 +5601,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>729.1316371486756</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="C19" t="n">
-        <v>560.1954542207687</v>
+        <v>362.4615353427247</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>362.4615353427247</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>362.4615353427247</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>362.4615353427247</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5671,22 +5671,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1246.249826833135</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1246.249826833135</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>957.121188046693</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V19" t="n">
-        <v>957.121188046693</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W19" t="n">
-        <v>957.121188046693</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="X19" t="n">
-        <v>729.1316371486756</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="Y19" t="n">
-        <v>729.1316371486756</v>
+        <v>531.3977182706316</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5732,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>565.9270610048576</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>565.9270610048576</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1264.982246770075</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>975.5650767331147</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>747.5755258350973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>747.5755258350973</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822459</v>
@@ -5987,52 +5987,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,10 +6166,10 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1382.222354598087</v>
@@ -6203,40 +6203,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404657</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404657</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404657</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404657</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404656</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6382,10 +6382,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799364</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1404.962404186602</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1404.962404186602</v>
       </c>
       <c r="T28" t="n">
-        <v>1326.612261067772</v>
+        <v>1181.176988976108</v>
       </c>
       <c r="U28" t="n">
-        <v>1037.483622281331</v>
+        <v>892.0483501896664</v>
       </c>
       <c r="V28" t="n">
-        <v>782.7991340754437</v>
+        <v>637.3638619837795</v>
       </c>
       <c r="W28" t="n">
-        <v>493.381964038483</v>
+        <v>637.3638619837795</v>
       </c>
       <c r="X28" t="n">
-        <v>265.3924131404657</v>
+        <v>637.3638619837795</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404657</v>
+        <v>416.5712828402495</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,10 +6449,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,19 +6461,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,22 +6540,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163783</v>
+        <v>600.4439501541576</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698422</v>
+        <v>487.2686325076215</v>
       </c>
       <c r="D31" t="n">
-        <v>448.6865844733379</v>
+        <v>392.9128583766565</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723156</v>
+        <v>300.7606300756341</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557761</v>
+        <v>209.6315478590946</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6640,7 +6640,7 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981894</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652471</v>
+        <v>730.4517433652466</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652471</v>
+        <v>726.3315497030266</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,34 +6683,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,22 +6947,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504507</v>
@@ -7087,40 +7087,40 @@
         <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,19 +7163,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,19 +7184,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525397</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,67 +7394,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>709.4934589365143</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1016.813592216476</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1346.676219880509</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
         <v>2016.139981183168</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
         <v>559.3441472229671</v>
@@ -7552,7 +7552,7 @@
         <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7561,19 +7561,19 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7634,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7795,7 +7795,7 @@
         <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010313</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>96.03744927814705</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,10 +11139,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>176.7176547498455</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>199.7396287231156</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>138.77939994306</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>110.0180325826785</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>266.1042188975492</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>52.81539738729926</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>57.74538309987611</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,16 +24175,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>20.5429597738792</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338567</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>16.95002469620578</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>160.9309440669532</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>51.13699711011592</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>93.71057173897908</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571494</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>159.30240499794</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-13</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="C2" t="n">
         <v>266838.5752058924</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="E2" t="n">
         <v>254168.8888295108</v>
       </c>
       <c r="F2" t="n">
+        <v>254168.8888295108</v>
+      </c>
+      <c r="G2" t="n">
         <v>254168.8888295107</v>
-      </c>
-      <c r="G2" t="n">
-        <v>254168.8888295108</v>
       </c>
       <c r="H2" t="n">
         <v>254168.8888295108</v>
@@ -26335,22 +26335,22 @@
         <v>254168.8888295107</v>
       </c>
       <c r="J2" t="n">
-        <v>254168.8888295108</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="K2" t="n">
-        <v>264434.3892744259</v>
+        <v>264434.3892744253</v>
       </c>
       <c r="L2" t="n">
         <v>266838.5752058922</v>
       </c>
       <c r="M2" t="n">
+        <v>266838.5752058923</v>
+      </c>
+      <c r="N2" t="n">
+        <v>266838.5752058923</v>
+      </c>
+      <c r="O2" t="n">
         <v>266838.5752058922</v>
-      </c>
-      <c r="N2" t="n">
-        <v>266838.5752058922</v>
-      </c>
-      <c r="O2" t="n">
-        <v>266838.5752058921</v>
       </c>
       <c r="P2" t="n">
         <v>266838.5752058921</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.9068008669</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26427,13 +26427,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15045.66962143914</v>
+      </c>
+      <c r="H4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15045.66962143912</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26442,16 +26442,16 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563567</v>
+        <v>33210.29213563562</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="M4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.4568627596</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275957</v>
@@ -26479,37 +26479,37 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>27204.53889126031</v>
       </c>
       <c r="D6" t="n">
-        <v>27204.53889126025</v>
+        <v>27204.53889126031</v>
       </c>
       <c r="E6" t="n">
-        <v>-378024.143217541</v>
+        <v>-378121.6023435132</v>
       </c>
       <c r="F6" t="n">
-        <v>147135.893259355</v>
+        <v>147038.4341333829</v>
       </c>
       <c r="G6" t="n">
-        <v>147135.893259355</v>
+        <v>147038.4341333828</v>
       </c>
       <c r="H6" t="n">
-        <v>147135.8932593551</v>
+        <v>147038.4341333829</v>
       </c>
       <c r="I6" t="n">
-        <v>147135.893259355</v>
+        <v>147038.4341333828</v>
       </c>
       <c r="J6" t="n">
-        <v>-29287.32593323784</v>
+        <v>-29384.7850592101</v>
       </c>
       <c r="K6" t="n">
-        <v>90433.28330572174</v>
+        <v>90414.78956778685</v>
       </c>
       <c r="L6" t="n">
         <v>121316.1057222404</v>
       </c>
       <c r="M6" t="n">
-        <v>-3142.002710729997</v>
+        <v>-3142.002710729765</v>
       </c>
       <c r="N6" t="n">
-        <v>131659.0125231072</v>
+        <v>131659.0125231073</v>
       </c>
       <c r="O6" t="n">
         <v>131659.0125231072</v>
       </c>
       <c r="P6" t="n">
-        <v>87496.40722026149</v>
+        <v>87496.40722026151</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,37 +26747,37 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108352</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>303.7774505705569</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>234.8534136286752</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>114.7731302731594</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>104.2783791093269</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>346.3249716002526</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>379.1071797682883</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>4.973311585527682</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>25.03982713115023</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>41.70230979040088</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>147.3031537723285</v>
+        <v>140.9809822185506</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35501,10 +35501,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,16 +35732,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>429.2320226761599</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36449,10 +36449,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36917,16 +36917,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,16 +37154,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>425.9753597058697</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>482.1033309642237</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
